--- a/data/trans_camb/P10_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 10,01</t>
+          <t>-1,31; 9,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,78</t>
+          <t>-0,89; 10,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,39</t>
+          <t>-2,34; 8,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 15,42</t>
+          <t>-0,35; 15,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 13,69</t>
+          <t>-2,38; 12,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,84</t>
+          <t>-2,65; 8,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,51</t>
+          <t>0,97; 10,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 9,44</t>
+          <t>0,34; 9,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 7,06</t>
+          <t>-0,74; 6,74</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,67; —</t>
+          <t>-45,47; 1281,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 1074,02</t>
+          <t>-53,2; 1106,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,67; —</t>
+          <t>-71,07; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 507,91</t>
+          <t>-13,92; 415,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 382,04</t>
+          <t>-32,42; 344,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 267,62</t>
+          <t>-30,53; 242,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 423,33</t>
+          <t>11,85; 421,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 325,65</t>
+          <t>-2,81; 339,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 256,41</t>
+          <t>-12,02; 243,44</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,18</t>
+          <t>-0,22; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,55</t>
+          <t>-0,81; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,26</t>
+          <t>-0,61; 4,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 13,6</t>
+          <t>6,83; 13,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,63</t>
+          <t>3,1; 9,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,62</t>
+          <t>2,27; 7,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,2</t>
+          <t>3,98; 8,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,11</t>
+          <t>1,88; 6,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,18</t>
+          <t>1,52; 4,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 174,1</t>
+          <t>-6,02; 154,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 159,1</t>
+          <t>-17,38; 142,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 144,74</t>
+          <t>-13,28; 149,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>100,69; 367,08</t>
+          <t>104,13; 374,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,35; 246,74</t>
+          <t>46,07; 260,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,19; 217,74</t>
+          <t>36,69; 206,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,92; 218,21</t>
+          <t>71,37; 222,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,22; 161,44</t>
+          <t>33,34; 157,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 143,44</t>
+          <t>24,0; 134,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,26</t>
+          <t>-0,1; 4,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,51</t>
+          <t>-3,37; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,96</t>
+          <t>-2,05; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,34</t>
+          <t>4,65; 10,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,89</t>
+          <t>0,83; 6,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,44</t>
+          <t>0,71; 5,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,44</t>
+          <t>3,0; 6,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,58</t>
+          <t>-0,58; 2,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,24</t>
+          <t>0,08; 3,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 99,75</t>
+          <t>-2,8; 106,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 11,48</t>
+          <t>-52,14; 12,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 46,42</t>
+          <t>-32,86; 48,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,42; 174,63</t>
+          <t>50,98; 169,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 94,34</t>
+          <t>6,66; 98,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 92,08</t>
+          <t>8,14; 88,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,96; 117,96</t>
+          <t>41,86; 118,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 47,86</t>
+          <t>-7,96; 51,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 58,34</t>
+          <t>1,27; 59,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,05</t>
+          <t>-3,37; 2,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 1,05</t>
+          <t>-4,5; 0,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,64</t>
+          <t>-1,35; 4,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,85</t>
+          <t>-2,71; 4,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 2,16</t>
+          <t>-4,41; 2,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,25</t>
+          <t>-6,38; 1,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,46</t>
+          <t>-1,98; 2,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,05</t>
+          <t>-3,24; 1,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,21</t>
+          <t>-2,72; 2,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 40,83</t>
+          <t>-42,71; 44,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 23,11</t>
+          <t>-54,44; 21,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 94,74</t>
+          <t>-17,74; 85,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 36,56</t>
+          <t>-19,8; 42,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 21,97</t>
+          <t>-30,97; 20,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 10,97</t>
+          <t>-46,69; 10,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 30,71</t>
+          <t>-19,92; 27,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 13,1</t>
+          <t>-31,45; 15,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 26,06</t>
+          <t>-26,61; 24,74</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,93</t>
+          <t>-0,53; 3,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,6</t>
+          <t>-0,76; 3,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,03</t>
+          <t>-1,98; 2,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,27</t>
+          <t>1,1; 6,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,15</t>
+          <t>-2,0; 3,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,71</t>
+          <t>0,32; 5,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,82</t>
+          <t>1,16; 4,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,64</t>
+          <t>-0,96; 2,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,45</t>
+          <t>0,06; 3,56</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 87,43</t>
+          <t>-8,47; 95,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 82,8</t>
+          <t>-14,36; 86,4</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 48,99</t>
+          <t>-32,07; 50,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,29; 91,67</t>
+          <t>11,12; 87,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 38,69</t>
+          <t>-19,6; 39,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,12; 72,29</t>
+          <t>2,87; 71,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 71,97</t>
+          <t>13,72; 74,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 39,94</t>
+          <t>-10,97; 38,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,06; 51,27</t>
+          <t>0,27; 52,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,41; 2,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,99; 1,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-0,41; 1,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>3,96; 7,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,77; 3,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,59</t>
+          <t>0,68; 3,76</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,65; 4,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,19; 2,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,55</t>
+          <t>0,65; 2,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>6,12; 60,06</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-17,29; 26,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 39,53</t>
+          <t>-7,32; 42,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>42,97; 91,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,36; 46,33</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,78; 45,82</t>
+          <t>7,76; 49,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>34,92; 72,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>2,67; 32,47</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,38; 39,63</t>
+          <t>9,12; 40,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_2_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P10_2_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 9,72</t>
+          <t>-1,03; 9,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,95</t>
+          <t>-1,1; 11,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 8,38</t>
+          <t>-2,52; 8,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 15,52</t>
+          <t>-0,04; 15,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 12,77</t>
+          <t>-0,9; 14,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 8,28</t>
+          <t>-2,89; 8,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,74</t>
+          <t>1,54; 10,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,93</t>
+          <t>0,56; 10,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,74</t>
+          <t>-0,99; 6,83</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,47; 1281,78</t>
+          <t>-40,81; 970,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 1106,75</t>
+          <t>-53,42; 1199,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,07; —</t>
+          <t>-72,48; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 415,72</t>
+          <t>-10,25; 464,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 344,27</t>
+          <t>-22,3; 455,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 242,66</t>
+          <t>-28,03; 268,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 421,4</t>
+          <t>11,76; 347,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 339,59</t>
+          <t>-4,24; 352,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 243,44</t>
+          <t>-18,15; 260,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,01</t>
+          <t>-0,2; 5,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,24</t>
+          <t>-0,93; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,32</t>
+          <t>-0,83; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 13,68</t>
+          <t>6,66; 13,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,4</t>
+          <t>3,3; 9,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,4</t>
+          <t>2,25; 7,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,35</t>
+          <t>4,19; 8,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,0</t>
+          <t>2,0; 6,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,98</t>
+          <t>1,26; 4,9</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 154,27</t>
+          <t>-5,61; 173,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 142,0</t>
+          <t>-19,24; 141,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 149,51</t>
+          <t>-18,88; 130,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>104,13; 374,55</t>
+          <t>101,85; 376,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,07; 260,94</t>
+          <t>48,14; 255,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,69; 206,06</t>
+          <t>30,4; 212,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,37; 222,53</t>
+          <t>74,03; 224,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,34; 157,1</t>
+          <t>33,2; 168,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,0; 134,18</t>
+          <t>21,54; 131,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,47</t>
+          <t>-0,02; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,49</t>
+          <t>-3,18; 0,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,13</t>
+          <t>-2,19; 2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 10,22</t>
+          <t>4,29; 10,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,21</t>
+          <t>0,72; 6,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,37</t>
+          <t>0,69; 5,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,69</t>
+          <t>2,75; 6,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,69</t>
+          <t>-0,82; 2,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,15</t>
+          <t>0,03; 3,07</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 106,19</t>
+          <t>-1,24; 97,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 12,78</t>
+          <t>-50,42; 8,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 48,52</t>
+          <t>-32,88; 48,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,98; 169,8</t>
+          <t>49,14; 171,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 98,93</t>
+          <t>8,55; 104,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 88,63</t>
+          <t>7,13; 92,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,86; 118,22</t>
+          <t>37,4; 117,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 51,01</t>
+          <t>-12,4; 47,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 59,09</t>
+          <t>0,58; 55,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 2,18</t>
+          <t>-3,21; 2,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,94</t>
+          <t>-4,12; 1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,28</t>
+          <t>-1,28; 4,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,37</t>
+          <t>-2,71; 4,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,18</t>
+          <t>-4,23; 2,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 1,28</t>
+          <t>-6,81; 1,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,3</t>
+          <t>-2,44; 2,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,22</t>
+          <t>-3,32; 1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,02</t>
+          <t>-2,84; 2,19</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 44,81</t>
+          <t>-42,44; 44,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 21,35</t>
+          <t>-52,68; 21,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 85,51</t>
+          <t>-17,24; 85,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 42,81</t>
+          <t>-19,02; 41,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 20,78</t>
+          <t>-30,28; 26,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 10,82</t>
+          <t>-49,06; 10,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 27,91</t>
+          <t>-21,82; 26,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 15,95</t>
+          <t>-31,85; 12,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 24,74</t>
+          <t>-27,72; 25,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,98</t>
+          <t>-0,62; 4,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,76</t>
+          <t>-0,87; 3,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,08</t>
+          <t>-2,14; 1,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,87</t>
+          <t>1,22; 6,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,24</t>
+          <t>-2,4; 2,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,32; 5,79</t>
+          <t>0,46; 5,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,8</t>
+          <t>1,3; 4,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,53</t>
+          <t>-0,67; 2,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,56</t>
+          <t>0,08; 3,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 95,46</t>
+          <t>-10,05; 96,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 86,4</t>
+          <t>-14,47; 81,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 50,81</t>
+          <t>-33,44; 43,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,12; 87,35</t>
+          <t>11,13; 84,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 39,79</t>
+          <t>-23,31; 35,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,87; 71,25</t>
+          <t>4,16; 73,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,72; 74,87</t>
+          <t>16,35; 72,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 38,45</t>
+          <t>-8,22; 39,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,27; 52,15</t>
+          <t>0,59; 52,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,8</t>
+          <t>0,28; 2,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,23</t>
+          <t>-0,91; 1,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,95</t>
+          <t>-0,5; 1,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,11</t>
+          <t>4,12; 7,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,6</t>
+          <t>0,79; 3,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,76</t>
+          <t>0,86; 3,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,65</t>
+          <t>2,58; 4,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,08</t>
+          <t>0,38; 2,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,53</t>
+          <t>0,7; 2,52</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,12; 60,06</t>
+          <t>4,95; 57,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 26,58</t>
+          <t>-16,02; 26,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 42,95</t>
+          <t>-8,57; 37,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>42,97; 91,21</t>
+          <t>45,41; 91,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,36; 46,33</t>
+          <t>8,54; 46,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>7,76; 49,18</t>
+          <t>9,18; 48,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>34,92; 72,53</t>
+          <t>36,11; 71,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,67; 32,47</t>
+          <t>5,02; 33,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,12; 40,54</t>
+          <t>9,64; 38,53</t>
         </is>
       </c>
     </row>
